--- a/Test File.xlsx
+++ b/Test File.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzaya\PycharmProjects\xl_grapher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzaya\Documents\GitHub\xl_grapher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,16 +653,17 @@
         <v>256</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D19">
-        <f>_xlfn.STDEV.S(D2:D17)</f>
-        <v>3.03315017762062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20">
-        <f>_xlfn.STDEV.S(D2:D17) / SQRT(COUNT(D2:D17))</f>
-        <v>0.758287544405155</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
